--- a/assets/excel/2021_1-4-3.xlsx
+++ b/assets/excel/2021_1-4-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD487692-A5D7-4616-BD49-801447815831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDDBC62-5D1C-411E-9440-A3BB8C916B66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{DF92A720-80F4-4FDF-A1CB-99CD19EC0500}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>1) Aufgeführt sind die 20 größten Wanderungssalden im Jahr 2020 als darunter Positionen der in der Zeile Ingesamt augewiesenen Werte. "Staatenlos" sowie "ungeklärt und ohne Angabe" werden in Sonstige Ausprägungen geführt.</t>
-  </si>
-  <si>
     <t>Saldo der Zu- und Fortzüge über die Bundesgrenzen aus Niedersachsen</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">EU Staaten                 </t>
+  </si>
+  <si>
+    <t>1) Aufgeführt sind die 20 größten Wanderungssalden aktuellen Berichtsjahr. Die Werte für "Staatenlos" sowie "ungeklärt und ohne Angabe" werden in Sonstige Ausprägungen geführt.</t>
   </si>
 </sst>
 </file>
@@ -337,6 +337,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,15 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,8 +687,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,30 +750,30 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26"/>
+      <c r="C6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="7">
         <v>2005</v>
       </c>
@@ -824,82 +824,82 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
+      <c r="B9" s="22">
         <v>1</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="22">
         <v>4</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="22">
         <v>5</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="22">
         <v>6</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="22">
         <v>7</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="22">
         <v>8</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="22">
         <v>9</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="22">
         <v>10</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="22">
         <v>11</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="22">
         <v>12</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="22">
         <v>13</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="23">
         <v>14</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="22">
         <v>15</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="23">
         <v>16</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="23">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="20">
         <v>28436</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="11" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="21">
         <v>-12</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="12" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="21">
         <v>10</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="13" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="21">
         <v>-378</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="14" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="21">
         <v>-340</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="15" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="21">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="16" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="21">
         <v>147</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="17" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="21">
         <v>4937</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="18" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="21">
         <v>264</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="19" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="21">
         <v>21843</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="20" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>6</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="21" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="21">
         <v>-304</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="22" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="21">
         <v>31</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="23" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="21">
         <v>1514</v>
@@ -1640,8 +1640,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>36</v>
+      <c r="B24" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="20">
         <v>6464</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="25" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="20">
         <v>361</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="26" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="20">
         <v>-298</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="27" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20">
         <v>13016</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="28" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="20">
         <v>20</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="29" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="21">
         <v>77</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="30" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21">
         <v>-48</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="31" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="21">
         <v>81</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="32" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="21">
         <v>11234</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="33" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="21">
         <v>23</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="34" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="21">
         <v>130</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="35" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="20">
         <v>-124</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="36" spans="2:18" s="12" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="21">
         <v>-874</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="37" spans="2:18" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="20">
         <v>40517</v>
@@ -2385,21 +2385,21 @@
       <c r="B38" s="13"/>
     </row>
     <row r="39" spans="2:18" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="B39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
       <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="2:18" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
